--- a/Total pendingAgencies/Total-pendingAgencies08122025pm.xlsx
+++ b/Total pendingAgencies/Total-pendingAgencies08122025pm.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
